--- a/Auction_Project/BidListExcel/9.xlsx
+++ b/Auction_Project/BidListExcel/9.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">UserNameForBid</t>
   </si>
   <si>
     <t xml:space="preserve">UserEmailForBid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemIdForBid</t>
   </si>
   <si>
     <t xml:space="preserve">ItemIsSold</t>
@@ -96,25 +93,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>555000</v>
       </c>
     </row>
   </sheetData>
